--- a/StockingProblemProject/Testes/Problema2/testes_recombinacao/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema2/testes_recombinacao/statistic_average_fitness_avaliado.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AppData\Local\GitHubDesktop\app-2.8.3\IAProject_StockingProblem\StockingProblemProject\Testes\Problema2\testes_recombinacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1BFC1426-97B1-48C7-A743-1E6ED38B5D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC2AAE-D35A-4613-AEAE-7CDFFA779E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,14 +605,14 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -699,11 +699,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -736,26 +734,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
                 <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -770,9 +769,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -797,11 +794,11 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1016,8 +1013,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:overlap val="-50"/>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
         <c:axId val="459434952"/>
         <c:axId val="459437576"/>
       </c:barChart>
@@ -1028,39 +1025,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1069,11 +1047,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1100,23 +1076,11 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1140,9 +1104,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1177,17 +1139,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1226,6 +1182,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Top 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1239,19 +1217,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1272,42 +1241,18 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1435,7 +1380,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
+        <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
         <c:axId val="637570104"/>
         <c:axId val="637566168"/>
@@ -1453,11 +1398,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1469,11 +1414,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1502,8 +1445,7 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                  <a:alpha val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1529,9 +1471,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1565,28 +1505,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1689,83 +1615,98 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="226">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1773,70 +1714,50 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:effectRef>
@@ -1844,52 +1765,41 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
       <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
       </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1909,20 +1819,20 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1930,138 +1840,129 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="10800000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst/>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2070,16 +1971,19 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2088,11 +1992,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2101,9 +2005,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -2124,211 +2026,223 @@
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="226">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2337,71 +2251,99 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2413,20 +2355,20 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2434,42 +2376,46 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2477,44 +2423,53 @@
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2522,36 +2477,39 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2559,18 +2517,20 @@
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2581,9 +2541,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -2592,7 +2550,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -2600,24 +2558,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2626,87 +2584,83 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2717,9 +2671,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -2728,7 +2680,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2774,16 +2726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>60386</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25876</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>77639</xdr:rowOff>
+      <xdr:rowOff>94890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>43133</xdr:colOff>
+      <xdr:colOff>120767</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>163903</xdr:rowOff>
+      <xdr:rowOff>172528</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3107,11 +3059,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="A34" sqref="A34:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3125,22 +3077,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3533,7 +3485,7 @@
       <c r="L15" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N15">
@@ -3571,7 +3523,7 @@
       <c r="L16" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="N16">
@@ -3609,7 +3561,7 @@
       <c r="L17" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="N17">
@@ -3647,7 +3599,7 @@
       <c r="L18" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N18">
@@ -3685,7 +3637,7 @@
       <c r="L19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N19">
@@ -3723,7 +3675,7 @@
       <c r="L20" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="N20">
@@ -3761,7 +3713,7 @@
       <c r="L21" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N21">
@@ -3799,7 +3751,7 @@
       <c r="L22" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="N22">
@@ -3837,7 +3789,7 @@
       <c r="L23" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N23">
@@ -3875,7 +3827,7 @@
       <c r="L24" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N24">
@@ -4058,333 +4010,333 @@
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" ht="6.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="9"/>
+      <c r="K33" s="7"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C34">
         <v>307.39999999999998</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="7"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C35">
         <v>307.74</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="7"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C36">
         <v>307.76</v>
       </c>
-      <c r="K36" s="9"/>
+      <c r="K36" s="7"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C37">
         <v>308.08</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="7"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C38">
         <v>307.5</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="K38" s="9"/>
+      <c r="K38" s="7"/>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C39">
         <v>305.36</v>
       </c>
-      <c r="K39" s="9"/>
+      <c r="K39" s="7"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C40">
         <v>306.58</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="K40" s="9"/>
+      <c r="K40" s="7"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C41">
         <v>306.88</v>
       </c>
-      <c r="K41" s="9"/>
+      <c r="K41" s="7"/>
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C42">
         <v>306.24</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="7"/>
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C43">
         <v>308.77999999999997</v>
       </c>
-      <c r="K43" s="9"/>
+      <c r="K43" s="7"/>
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C44">
         <v>307.3</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="7"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C45">
         <v>307.52</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="7"/>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C46">
         <v>308.27999999999997</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="7"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C47">
         <v>309.18</v>
       </c>
-      <c r="K47" s="9"/>
+      <c r="K47" s="7"/>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C48">
         <v>311.08</v>
       </c>
-      <c r="K48" s="9"/>
+      <c r="K48" s="7"/>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C49">
         <v>310.64</v>
       </c>
-      <c r="K49" s="9"/>
+      <c r="K49" s="7"/>
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C50">
         <v>313.60000000000002</v>
       </c>
-      <c r="K50" s="9"/>
+      <c r="K50" s="7"/>
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C51">
         <v>317.2</v>
       </c>
-      <c r="K51" s="9"/>
+      <c r="K51" s="7"/>
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C52">
         <v>308.77999999999997</v>
       </c>
-      <c r="K52" s="9"/>
+      <c r="K52" s="7"/>
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C53">
         <v>307.58</v>
       </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="7"/>
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C54">
         <v>309.88</v>
       </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="7"/>
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="9"/>
+      <c r="B55" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C55">
         <v>307.38</v>
       </c>
-      <c r="K55" s="9"/>
+      <c r="K55" s="7"/>
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C56">
         <v>308.18</v>
       </c>
-      <c r="K56" s="9"/>
+      <c r="K56" s="7"/>
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C57">
         <v>308.39999999999998</v>
       </c>
-      <c r="K57" s="9"/>
+      <c r="K57" s="7"/>
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C58">
         <v>307.44</v>
       </c>
-      <c r="K58" s="9"/>
+      <c r="K58" s="7"/>
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="9"/>
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C59">
         <v>309.06</v>
       </c>
-      <c r="K59" s="9"/>
+      <c r="K59" s="7"/>
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="9"/>
+      <c r="B60" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C60">
         <v>314.33999999999997</v>
       </c>
-      <c r="K60" s="9"/>
+      <c r="K60" s="7"/>
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" s="3" customFormat="1" ht="8.85" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/StockingProblemProject/Testes/Problema2/testes_recombinacao/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema2/testes_recombinacao/statistic_average_fitness_avaliado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AppData\Local\GitHubDesktop\app-2.8.3\IAProject_StockingProblem\StockingProblemProject\Testes\Problema2\testes_recombinacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itandmore/Documents/GitHub/IAProject_StockingProblem/StockingProblemProject/Testes/Problema2/testes_recombinacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC2AAE-D35A-4613-AEAE-7CDFFA779E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6AB1A3-39BB-A046-AADE-AE63A04C25DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26300" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
@@ -699,9 +699,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -734,27 +737,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="lt1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -769,7 +764,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -792,13 +790,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1013,8 +1012,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="269"/>
-        <c:overlap val="-20"/>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
         <c:axId val="459434952"/>
         <c:axId val="459437576"/>
       </c:barChart>
@@ -1026,19 +1025,13 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1047,9 +1040,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1073,27 +1069,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1104,7 +1092,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1139,11 +1130,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1188,9 +1182,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1217,9 +1214,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1241,16 +1241,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="lt1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1380,8 +1376,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="269"/>
-        <c:overlap val="-20"/>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
         <c:axId val="637570104"/>
         <c:axId val="637566168"/>
       </c:barChart>
@@ -1393,19 +1389,13 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1414,9 +1404,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1440,27 +1433,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1471,7 +1456,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1506,11 +1494,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1615,224 +1606,197 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="226">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="224">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
     <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
+      <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
     <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
+      <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1840,9 +1804,7 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1851,205 +1813,381 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
+      <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
+  </cs:valueAxis>
+  <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="224">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
     <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
     <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
+      <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2057,29 +2195,39 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2087,288 +2235,67 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="226">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
     <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
+      <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2376,9 +2303,7 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2387,264 +2312,244 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2652,27 +2557,39 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3062,21 +2979,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.625" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -3094,7 +3011,7 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3123,7 +3040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -3152,7 +3069,7 @@
         <v>5298150620735500</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -3181,7 +3098,7 @@
         <v>5112963915382150</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -3210,7 +3127,7 @@
         <v>5067898972947270</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -3239,7 +3156,7 @@
         <v>4541541588491730</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -3268,7 +3185,7 @@
         <v>5.6008927859761696E+16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -3297,7 +3214,7 @@
         <v>6118463859499370</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -3326,7 +3243,7 @@
         <v>5723635208501670</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -3355,7 +3272,7 @@
         <v>5284543499679040</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -3384,7 +3301,7 @@
         <v>4695742752749550</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -3413,10 +3330,10 @@
         <v>4432786933747210</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -3454,7 +3371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>100</v>
       </c>
@@ -3492,7 +3409,7 @@
         <v>305.36</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -3530,7 +3447,7 @@
         <v>306.24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
@@ -3568,7 +3485,7 @@
         <v>306.58</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>100</v>
       </c>
@@ -3606,7 +3523,7 @@
         <v>306.88</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -3644,7 +3561,7 @@
         <v>307.3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -3682,7 +3599,7 @@
         <v>307.38</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -3720,7 +3637,7 @@
         <v>307.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -3758,7 +3675,7 @@
         <v>307.44</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -3796,7 +3713,7 @@
         <v>307.5</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -3834,7 +3751,7 @@
         <v>307.52</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>100</v>
       </c>
@@ -3863,7 +3780,7 @@
         <v>597876241374417</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>100</v>
       </c>
@@ -3892,7 +3809,7 @@
         <v>4581528129347230</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>100</v>
       </c>
@@ -3921,7 +3838,7 @@
         <v>3713973613261130</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -3950,7 +3867,7 @@
         <v>3.8832975677895104E+16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>100</v>
       </c>
@@ -3979,7 +3896,7 @@
         <v>7058640095655820</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>100</v>
       </c>
@@ -4008,8 +3925,8 @@
         <v>3.85227205685164E+16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" ht="6.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="3" customFormat="1" ht="6.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
@@ -4027,14 +3944,14 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="K33" s="7"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>10</v>
       </c>
@@ -4047,7 +3964,7 @@
       <c r="K34" s="7"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="6" t="s">
         <v>17</v>
@@ -4058,7 +3975,7 @@
       <c r="K35" s="7"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="6" t="s">
         <v>18</v>
@@ -4069,7 +3986,7 @@
       <c r="K36" s="7"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="6" t="s">
         <v>19</v>
@@ -4080,7 +3997,7 @@
       <c r="K37" s="7"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="6" t="s">
         <v>20</v>
@@ -4092,7 +4009,7 @@
       <c r="K38" s="7"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="6" t="s">
         <v>21</v>
@@ -4103,7 +4020,7 @@
       <c r="K39" s="7"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="6" t="s">
         <v>22</v>
@@ -4115,7 +4032,7 @@
       <c r="K40" s="7"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="6" t="s">
         <v>23</v>
@@ -4126,7 +4043,7 @@
       <c r="K41" s="7"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="6" t="s">
         <v>24</v>
@@ -4137,7 +4054,7 @@
       <c r="K42" s="7"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>12</v>
       </c>
@@ -4150,7 +4067,7 @@
       <c r="K43" s="7"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="6" t="s">
         <v>17</v>
@@ -4161,7 +4078,7 @@
       <c r="K44" s="7"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="6" t="s">
         <v>18</v>
@@ -4172,7 +4089,7 @@
       <c r="K45" s="7"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="6" t="s">
         <v>19</v>
@@ -4183,7 +4100,7 @@
       <c r="K46" s="7"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="6" t="s">
         <v>20</v>
@@ -4194,7 +4111,7 @@
       <c r="K47" s="7"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="6" t="s">
         <v>21</v>
@@ -4205,7 +4122,7 @@
       <c r="K48" s="7"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="6" t="s">
         <v>22</v>
@@ -4216,7 +4133,7 @@
       <c r="K49" s="7"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="6" t="s">
         <v>23</v>
@@ -4227,7 +4144,7 @@
       <c r="K50" s="7"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="6" t="s">
         <v>24</v>
@@ -4238,7 +4155,7 @@
       <c r="K51" s="7"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>13</v>
       </c>
@@ -4251,7 +4168,7 @@
       <c r="K52" s="7"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="6" t="s">
         <v>17</v>
@@ -4262,7 +4179,7 @@
       <c r="K53" s="7"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="6" t="s">
         <v>18</v>
@@ -4273,7 +4190,7 @@
       <c r="K54" s="7"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="6" t="s">
         <v>19</v>
@@ -4284,7 +4201,7 @@
       <c r="K55" s="7"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="6" t="s">
         <v>20</v>
@@ -4295,7 +4212,7 @@
       <c r="K56" s="7"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="6" t="s">
         <v>21</v>
@@ -4306,7 +4223,7 @@
       <c r="K57" s="7"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="6" t="s">
         <v>22</v>
@@ -4317,7 +4234,7 @@
       <c r="K58" s="7"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="6" t="s">
         <v>23</v>
@@ -4328,7 +4245,7 @@
       <c r="K59" s="7"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="6" t="s">
         <v>24</v>
@@ -4339,7 +4256,7 @@
       <c r="K60" s="7"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" ht="8.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:15" s="3" customFormat="1" ht="8.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C60">
     <sortCondition descending="1" ref="A34:A60"/>
